--- a/biology/Zoologie/Furcifer/Furcifer.xlsx
+++ b/biology/Zoologie/Furcifer/Furcifer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Furcifer est un genre de sauriens de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Furcifer est un genre de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent à Madagascar et aux Comores[1]. Furcifer pardalis a été introduite à La Réunion.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent à Madagascar et aux Comores. Furcifer pardalis a été introduite à La Réunion.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des caméléons d'assez grande taille pour des caméléons, ils mesurent de 40 à 50 cm avec la queue. 
 Ils sont diurnes et arboricoles, se nourrissant principalement d'insectes et parfois de petits reptiles.
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (4 janvier 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (4 janvier 2013) :
 Furcifer angeli (Brygoo &amp; Domergue, 1968)
 Furcifer antimena (Grandidier, 1872)
 Furcifer balteatus (Duméril &amp; Bibron, 1851)
@@ -628,7 +646,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot « furcifer » signifie "qui présente une fourche". C'est une épithète assez commune pour de nombreuses espèces animales.
 </t>
@@ -659,7 +679,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fitzinger, 1843 : Systema Reptilium, fasciculus primus, Amblyglossae. Braumüller et Seidel, Wien, p. 1-106 (texte intégral).</t>
         </is>
